--- a/Data/diseño de pruebas unitarias.xlsx
+++ b/Data/diseño de pruebas unitarias.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Symghoul\Documents\GitHub\AEDProject\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Estructuras\AEDProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DD226D-5DA1-4751-AD62-67541BCB3765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="122">
   <si>
     <t>Objetivo</t>
   </si>
@@ -148,31 +146,6 @@
     <t>El método eliminó el ciclo.</t>
   </si>
   <si>
-    <t>Probar el método que elimina todas las aristas entre dos vértices.</t>
-  </si>
-  <si>
-    <t>deleteAllEdge(i nt, int)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dos vértices conectados por una sola arista y que no tengan conexión con
-otros vértices.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dos vértices conectados por una sola arista y que tengan conexión con otros
-vértices.
-</t>
-  </si>
-  <si>
-    <t>Índice del vértice origen, indice del vértice destino</t>
-  </si>
-  <si>
-    <t>El método eliminó la arista entre esos dos vértices.</t>
-  </si>
-  <si>
-    <t>El método eliminó la arista entre esos dos vértices sin eliminar las otras aristas.</t>
-  </si>
-  <si>
     <t>Probar el método BFS desde un vértice de partida.</t>
   </si>
   <si>
@@ -206,9 +179,6 @@
     <t>Probar el método BFS sin ningún vértice de partida.</t>
   </si>
   <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
     <t>El método devolvió varios ArrayList.</t>
   </si>
   <si>
@@ -216,9 +186,6 @@
   </si>
   <si>
     <t>BFS()</t>
-  </si>
-  <si>
-    <t>DFS(int)</t>
   </si>
   <si>
     <t>Recorrer un grafo de un solo vértice.</t>
@@ -313,9 +280,6 @@
     <t xml:space="preserve">Lista de adyacencia </t>
   </si>
   <si>
-    <t>AdjacencyListGraph</t>
-  </si>
-  <si>
     <t xml:space="preserve">comprobar que el método Kruskal funcione correctamente </t>
   </si>
   <si>
@@ -431,13 +395,19 @@
   </si>
   <si>
     <t>El metodo retorna true debido a que esta vacio</t>
+  </si>
+  <si>
+    <t>GraphL</t>
+  </si>
+  <si>
+    <t>No tiene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +434,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -507,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -527,6 +505,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,30 +612,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="B4:G27" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B4:G27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B4:G27" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B4:G27"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Objetivo" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Clase" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Metodo" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Escenario" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Entrada" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Salida" dataDxfId="8"/>
+    <tableColumn id="1" name="Objetivo" dataDxfId="13"/>
+    <tableColumn id="2" name="Clase" dataDxfId="12"/>
+    <tableColumn id="3" name="Metodo" dataDxfId="11"/>
+    <tableColumn id="4" name="Escenario" dataDxfId="10"/>
+    <tableColumn id="5" name="Entrada" dataDxfId="9"/>
+    <tableColumn id="6" name="Salida" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla15" displayName="Tabla15" ref="B32:G66" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B32:G66" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla15" displayName="Tabla15" ref="B32:G64" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B32:G64"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Objetivo" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Clase" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Metodo" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Escenario" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Entrada" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Salida" dataDxfId="0"/>
+    <tableColumn id="1" name="Objetivo" dataDxfId="5"/>
+    <tableColumn id="2" name="Clase" dataDxfId="4"/>
+    <tableColumn id="3" name="Metodo" dataDxfId="3"/>
+    <tableColumn id="4" name="Escenario" dataDxfId="2"/>
+    <tableColumn id="5" name="Entrada" dataDxfId="1"/>
+    <tableColumn id="6" name="Salida" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -955,11 +937,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,35 +955,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="A1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1034,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -1057,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -1073,14 +1055,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -1096,12 +1078,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -1117,14 +1099,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -1136,16 +1118,16 @@
         <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1161,330 +1143,330 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="9">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="2" t="s">
+    <row r="15" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="17" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="9">
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1492,22 +1474,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1515,43 +1497,43 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -1584,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>7</v>
@@ -1600,14 +1582,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="9">
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>12</v>
@@ -1623,12 +1605,12 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>12</v>
@@ -1644,14 +1626,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="9">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>20</v>
@@ -1667,12 +1649,12 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>21</v>
@@ -1688,14 +1670,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="9">
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>30</v>
@@ -1711,12 +1693,12 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>29</v>
@@ -1732,12 +1714,12 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>29</v>
@@ -1752,15 +1734,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>39</v>
@@ -1769,19 +1751,19 @@
         <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
       <c r="B42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>39</v>
@@ -1790,554 +1772,512 @@
         <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="G43" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>6</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="2" t="s">
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="F49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>7</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="9"/>
+      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
         <v>8</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="2" t="s">
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="G58" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>10</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>9</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="2" t="s">
+    <row r="61" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>11</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>10</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" s="2" t="s">
+      <c r="F64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>11</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
-        <v>12</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>86</v>
-      </c>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A25"/>
+  <mergeCells count="21">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A30:G31"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2346,21 +2286,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="4" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>